--- a/bragg.xlsx
+++ b/bragg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gérémy\Documents\Université\3e année\Session 6\Physique expérimentale V\Données\H24_Laue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF48775-A393-483A-B3E6-29BC24131C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27392F2E-BD5F-4643-8493-B138451DF394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,19 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -406,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -430,7 +420,7 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -495,7 +485,7 @@
         <v>0.22138168877045961</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E3:E7" si="2">C4*63.09</f>
+        <f t="shared" ref="E4:E6" si="2">C4*63.09</f>
         <v>126.18</v>
       </c>
       <c r="F4">
@@ -571,13 +561,6 @@
         <f t="shared" si="1"/>
         <v>2.8285097964115516E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -589,7 +572,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -601,34 +584,34 @@
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>9.1000000000000014</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>0.2129670575839181</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <f>SIN(A2*PI()/180)</f>
         <v>0.15815806725448356</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <f>C2*63.06</f>
         <v>63.06</v>
       </c>
@@ -638,20 +621,20 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>0.15768592812655971</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <f t="shared" ref="D3:D7" si="0">SIN(A3*PI()/180)</f>
         <v>0.17708474031958327</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <f>C3*71.08</f>
         <v>71.08</v>
       </c>
@@ -661,21 +644,21 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>18.3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>0.32235734724833592</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>0.31399245596740494</v>
       </c>
-      <c r="E4" s="3">
-        <f t="shared" ref="E4:E7" si="2">C4*63.06</f>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4" si="2">C4*63.06</f>
         <v>126.12</v>
       </c>
       <c r="F4">
@@ -684,21 +667,21 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>20.7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>0.1566091953770784</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>0.35347484377925714</v>
       </c>
-      <c r="E5" s="3">
-        <f t="shared" ref="E5:E7" si="3">C5*71.08</f>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5" si="3">C5*71.08</f>
         <v>142.16</v>
       </c>
       <c r="F5">
@@ -707,21 +690,21 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>28.1</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>0.35265576936927279</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>0.47101188121941001</v>
       </c>
-      <c r="E6" s="3">
-        <f t="shared" ref="E6:E7" si="4">C6*63.06</f>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6" si="4">C6*63.06</f>
         <v>189.18</v>
       </c>
       <c r="F6">
@@ -730,20 +713,20 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>31.9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>0.31718900085327301</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>0.52843833472234714</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <f t="shared" ref="E7" si="5">C7*71.08</f>
         <v>213.24</v>
       </c>
